--- a/CMSSS(NSGA-II)/SimulationDataset/simulationData52.xlsx
+++ b/CMSSS(NSGA-II)/SimulationDataset/simulationData52.xlsx
@@ -198,304 +198,304 @@
     <t>i=10,j=5</t>
   </si>
   <si>
-    <t>[0 200 316 511 735 845 907;170 203 476 614 844 860 960]</t>
-  </si>
-  <si>
-    <t>[0 1179;630 960]</t>
-  </si>
-  <si>
-    <t>[0 475 820;15 587 960]</t>
-  </si>
-  <si>
-    <t>[0 422 477 548 940;100 467 536 665 960]</t>
-  </si>
-  <si>
-    <t>[0 676 745 802;450 710 793 960]</t>
-  </si>
-  <si>
-    <t>[0 341 444 794 1027;283 397 740 799 960]</t>
-  </si>
-  <si>
-    <t>[0 211 276 301 537 883 968;170 212 285 445 660 950 960]</t>
-  </si>
-  <si>
-    <t>[0 137 247 331 1008;36 237 318 547 960]</t>
-  </si>
-  <si>
-    <t>[0 210 372 557 713 964;71 258 492 663 953 960]</t>
-  </si>
-  <si>
-    <t>[0 1014;410 960]</t>
-  </si>
-  <si>
-    <t>[0 23 1026;10 498 960]</t>
-  </si>
-  <si>
-    <t>[0 1037;581 960]</t>
-  </si>
-  <si>
-    <t>[0 471 560 639 685 915;127 497 600 647 906 960]</t>
-  </si>
-  <si>
-    <t>[0 812 839 903;558 823 843 960]</t>
-  </si>
-  <si>
-    <t>[0 19 126 233 527 765 940;12 50 148 363 691 891 960]</t>
-  </si>
-  <si>
-    <t>[0 339 418 495 587 828 993;324 342 439 580 660 904 960]</t>
-  </si>
-  <si>
-    <t>[0 309 637 873;206 516 831 960]</t>
-  </si>
-  <si>
-    <t>[0 138 325 1053;88 226 596 960]</t>
-  </si>
-  <si>
-    <t>[0 237 474 736 823;90 358 595 797 960]</t>
-  </si>
-  <si>
-    <t>[0 376 973;294 439 960]</t>
-  </si>
-  <si>
-    <t>[0 409 532 757 864 991;344 506 696 782 919 960]</t>
-  </si>
-  <si>
-    <t>[0 300 619 1102;154 342 957 960]</t>
-  </si>
-  <si>
-    <t>[0 763;171 960]</t>
-  </si>
-  <si>
-    <t>[0 563 1226;315 927 960]</t>
-  </si>
-  <si>
-    <t>[0 203 426 511 618 844;89 240 490 574 812 960]</t>
-  </si>
-  <si>
-    <t>[0 1377;487 960]</t>
-  </si>
-  <si>
-    <t>[0 182 298 1130;143 268 583 960]</t>
-  </si>
-  <si>
-    <t>[0 42 225 463 603 822 1015;25 132 337 543 645 949 960]</t>
-  </si>
-  <si>
-    <t>[0 279 628 748 1030;74 474 685 873 960]</t>
-  </si>
-  <si>
-    <t>[0 553 701 1036;14 639 705 960]</t>
-  </si>
-  <si>
-    <t>[0 220 524 605;89 347 572 960]</t>
-  </si>
-  <si>
-    <t>[0 129 616 654 795;26 427 642 752 960]</t>
-  </si>
-  <si>
-    <t>[0 435 601 662;314 540 605 960]</t>
-  </si>
-  <si>
-    <t>[0 299 453 740 883;40 350 636 839 960]</t>
-  </si>
-  <si>
-    <t>[0 158 766 1003;46 623 780 960]</t>
-  </si>
-  <si>
-    <t>[0 254 446 498 958;196 348 454 692 960]</t>
-  </si>
-  <si>
-    <t>[0 148 299 346 443 735;96 174 340 379 700 960]</t>
-  </si>
-  <si>
-    <t>[0 140 297 518 732 875 900;125 269 405 549 865 898 960]</t>
-  </si>
-  <si>
-    <t>[0 186 376 401 529 652 1021;41 326 392 423 549 932 960]</t>
-  </si>
-  <si>
-    <t>[0 341 650 718;197 495 712 960]</t>
-  </si>
-  <si>
-    <t>[0 165 381 1034;162 327 536 960]</t>
-  </si>
-  <si>
-    <t>[0 474 588 1036;463 497 925 960]</t>
-  </si>
-  <si>
-    <t>[0 131 486 578 874 1048;8 448 514 863 925 960]</t>
-  </si>
-  <si>
-    <t>[0 176 361 564 750 846 1017;19 249 496 611 790 941 960]</t>
-  </si>
-  <si>
-    <t>[0 156 367 577 800 938;152 216 547 779 849 960]</t>
-  </si>
-  <si>
-    <t>[0 644 873;219 683 960]</t>
-  </si>
-  <si>
-    <t>[0 26 49 281 445 516 840;16 31 139 289 505 761 959]</t>
-  </si>
-  <si>
-    <t>[0 266 537 952;68 375 724 960]</t>
-  </si>
-  <si>
-    <t>[0 465 967;417 659 960]</t>
-  </si>
-  <si>
-    <t>[0 48 892 1169;38 491 904 960]</t>
-  </si>
-  <si>
-    <t>[70 96]</t>
-  </si>
-  <si>
-    <t>[42 15]</t>
-  </si>
-  <si>
-    <t>[90 87]</t>
-  </si>
-  <si>
-    <t>[14 92]</t>
-  </si>
-  <si>
-    <t>[66 63]</t>
-  </si>
-  <si>
-    <t>[8 40]</t>
-  </si>
-  <si>
-    <t>[29 94]</t>
+    <t>[0 121 429 494 669 777 1200;27 410 485 642 690 835 960]</t>
+  </si>
+  <si>
+    <t>[0 109 356 385 474 510 883 989;43 334 374 448 493 867 884 960]</t>
+  </si>
+  <si>
+    <t>[0 89 304 366 529 771 1039;37 200 356 523 539 805 960]</t>
+  </si>
+  <si>
+    <t>[0 199 400 485 761 1039;98 278 451 637 936 960]</t>
+  </si>
+  <si>
+    <t>[0 561 748 902;56 695 899 909]</t>
+  </si>
+  <si>
+    <t>[0 37 447 581 1051;28 226 548 591 960]</t>
+  </si>
+  <si>
+    <t>[0 171 326 528 821 898 978;164 313 384 802 844 912 960]</t>
+  </si>
+  <si>
+    <t>[0 156 295 444 473 607 688 843 900 1069;132 233 382 465 594 676 830 898 925 960]</t>
+  </si>
+  <si>
+    <t>[0 220 1145;207 450 960]</t>
+  </si>
+  <si>
+    <t>[0 1309;608 960]</t>
+  </si>
+  <si>
+    <t>[0 555 661 1008;9 659 834 960]</t>
+  </si>
+  <si>
+    <t>[0 132 266 313 381 466 589 743 855 940;81 251 272 360 464 587 736 852 928 960]</t>
+  </si>
+  <si>
+    <t>[0 115 648 1028;73 155 915 960]</t>
+  </si>
+  <si>
+    <t>[0 259 446 831;228 278 468 960]</t>
+  </si>
+  <si>
+    <t>[0 141 246 789 882 1011;103 167 285 880 911 960]</t>
+  </si>
+  <si>
+    <t>[0 115 450 742 1114;4 408 686 819 960]</t>
+  </si>
+  <si>
+    <t>[0 367 869;46 646 960]</t>
+  </si>
+  <si>
+    <t>[0 477 683 951 1015;95 612 724 957 960]</t>
+  </si>
+  <si>
+    <t>[0 107 285 471 692 794 1039;41 188 316 577 720 914 960]</t>
+  </si>
+  <si>
+    <t>[0 177 959;105 301 960]</t>
+  </si>
+  <si>
+    <t>[0 755 1076;301 873 960]</t>
+  </si>
+  <si>
+    <t>[0 103 360 412 805 1030;13 182 396 717 898 960]</t>
+  </si>
+  <si>
+    <t>[0 258 458 1173;240 415 644 960]</t>
+  </si>
+  <si>
+    <t>[0 77 180 404 1160;38 119 277 836 960]</t>
+  </si>
+  <si>
+    <t>[0 160 240 332 498 965;102 215 322 457 531 960]</t>
+  </si>
+  <si>
+    <t>[0 271 384 850 983;36 296 751 876 960]</t>
+  </si>
+  <si>
+    <t>[0 82 187 264 350 727 1118;12 177 231 303 631 952 960]</t>
+  </si>
+  <si>
+    <t>[0 335 518 599 736;92 477 586 656 960]</t>
+  </si>
+  <si>
+    <t>[0 52 122 348 396 543 675 731;23 99 273 375 461 658 723 960]</t>
+  </si>
+  <si>
+    <t>[0 39 161 245 405 568 846;3 87 211 248 441 822 960]</t>
+  </si>
+  <si>
+    <t>[0 553 677 1111;82 649 882 960]</t>
+  </si>
+  <si>
+    <t>[0 701 1146;183 802 960]</t>
+  </si>
+  <si>
+    <t>[0 78 189 268 384 492 623 943 1063;69 159 204 339 477 610 719 950 960]</t>
+  </si>
+  <si>
+    <t>[0 56 584 972;12 176 723 960]</t>
+  </si>
+  <si>
+    <t>[0 103 598 978;95 374 695 960]</t>
+  </si>
+  <si>
+    <t>[0 333 604;68 464 960]</t>
+  </si>
+  <si>
+    <t>[0 224 403 491 559 610 645 818;172 318 426 554 570 639 726 960]</t>
+  </si>
+  <si>
+    <t>[0 538 616;253 589 960]</t>
+  </si>
+  <si>
+    <t>[0 97 762;58 171 960]</t>
+  </si>
+  <si>
+    <t>[0 193 590 767;65 277 682 960]</t>
+  </si>
+  <si>
+    <t>[0 920;407 960]</t>
+  </si>
+  <si>
+    <t>[0 488 847 882;476 692 874 960]</t>
+  </si>
+  <si>
+    <t>[0;960]</t>
+  </si>
+  <si>
+    <t>[0 70 355 662 897;34 230 481 752 960]</t>
+  </si>
+  <si>
+    <t>[0 121 554 625 796 865 950;50 278 570 722 854 902 960]</t>
+  </si>
+  <si>
+    <t>[0 191 252 356 777 804;88 236 347 772 796 960]</t>
+  </si>
+  <si>
+    <t>[0 344 552 614 921 968;34 484 564 730 955 960]</t>
+  </si>
+  <si>
+    <t>[0 56 1404;30 750 960]</t>
+  </si>
+  <si>
+    <t>[0 508 583 988;284 524 605 960]</t>
+  </si>
+  <si>
+    <t>[0 427 608 666 779 965;306 428 642 773 932 960]</t>
+  </si>
+  <si>
+    <t>[85 66]</t>
+  </si>
+  <si>
+    <t>[92 95]</t>
+  </si>
+  <si>
+    <t>[62 68]</t>
+  </si>
+  <si>
+    <t>[83 88]</t>
+  </si>
+  <si>
+    <t>[87 32]</t>
+  </si>
+  <si>
+    <t>[39 95]</t>
+  </si>
+  <si>
+    <t>[66 4]</t>
+  </si>
+  <si>
+    <t>[91 57]</t>
+  </si>
+  <si>
+    <t>[24 49]</t>
+  </si>
+  <si>
+    <t>[1 23]</t>
+  </si>
+  <si>
+    <t>[75 97]</t>
+  </si>
+  <si>
+    <t>[81 88]</t>
+  </si>
+  <si>
+    <t>[98 1]</t>
+  </si>
+  <si>
+    <t>[10 40]</t>
+  </si>
+  <si>
+    <t>[18 82]</t>
+  </si>
+  <si>
+    <t>[28 87]</t>
+  </si>
+  <si>
+    <t>[57 89]</t>
+  </si>
+  <si>
+    <t>[92 21]</t>
+  </si>
+  <si>
+    <t>[2 56]</t>
+  </si>
+  <si>
+    <t>[62 86]</t>
+  </si>
+  <si>
+    <t>[44 93]</t>
+  </si>
+  <si>
+    <t>[98 27]</t>
+  </si>
+  <si>
+    <t>[84 26]</t>
+  </si>
+  <si>
+    <t>[4 47]</t>
+  </si>
+  <si>
+    <t>[87 56]</t>
+  </si>
+  <si>
+    <t>[50 65]</t>
+  </si>
+  <si>
+    <t>[90 78]</t>
+  </si>
+  <si>
+    <t>[67 82]</t>
+  </si>
+  <si>
+    <t>[32 55]</t>
+  </si>
+  <si>
+    <t>[64 35]</t>
+  </si>
+  <si>
+    <t>[73 64]</t>
+  </si>
+  <si>
+    <t>[89 80]</t>
+  </si>
+  <si>
+    <t>[79 93]</t>
+  </si>
+  <si>
+    <t>[74 65]</t>
+  </si>
+  <si>
+    <t>[23 59]</t>
+  </si>
+  <si>
+    <t>[19 84]</t>
+  </si>
+  <si>
+    <t>[6 9]</t>
+  </si>
+  <si>
+    <t>[77 78]</t>
+  </si>
+  <si>
+    <t>[35 86]</t>
+  </si>
+  <si>
+    <t>[8 93]</t>
+  </si>
+  <si>
+    <t>[37 24]</t>
+  </si>
+  <si>
+    <t>[2 48]</t>
+  </si>
+  <si>
+    <t>[42 49]</t>
+  </si>
+  <si>
+    <t>[96 13]</t>
+  </si>
+  <si>
+    <t>[85 36]</t>
+  </si>
+  <si>
+    <t>[39 45]</t>
+  </si>
+  <si>
+    <t>[93 96]</t>
   </si>
   <si>
     <t>[27 65]</t>
   </si>
   <si>
-    <t>[56 57]</t>
-  </si>
-  <si>
-    <t>[75 4]</t>
-  </si>
-  <si>
-    <t>[39 53]</t>
-  </si>
-  <si>
-    <t>[60 92]</t>
-  </si>
-  <si>
-    <t>[86 52]</t>
-  </si>
-  <si>
-    <t>[9 91]</t>
-  </si>
-  <si>
-    <t>[68 26]</t>
-  </si>
-  <si>
-    <t>[52 31]</t>
-  </si>
-  <si>
-    <t>[16 44]</t>
-  </si>
-  <si>
-    <t>[37 26]</t>
-  </si>
-  <si>
-    <t>[47 28]</t>
-  </si>
-  <si>
-    <t>[79 11]</t>
-  </si>
-  <si>
-    <t>[11 97]</t>
-  </si>
-  <si>
-    <t>[81 39]</t>
-  </si>
-  <si>
-    <t>[28 48]</t>
-  </si>
-  <si>
-    <t>[98 86]</t>
-  </si>
-  <si>
-    <t>[76 92]</t>
-  </si>
-  <si>
-    <t>[20 61]</t>
-  </si>
-  <si>
-    <t>[16 10]</t>
-  </si>
-  <si>
-    <t>[36 15]</t>
-  </si>
-  <si>
-    <t>[62 44]</t>
-  </si>
-  <si>
-    <t>[32 74]</t>
-  </si>
-  <si>
-    <t>[68 71]</t>
-  </si>
-  <si>
-    <t>[97 100]</t>
-  </si>
-  <si>
-    <t>[1 71]</t>
-  </si>
-  <si>
-    <t>[68 6]</t>
-  </si>
-  <si>
-    <t>[65 40]</t>
-  </si>
-  <si>
-    <t>[24 3]</t>
-  </si>
-  <si>
-    <t>[69 19]</t>
-  </si>
-  <si>
-    <t>[33 33]</t>
-  </si>
-  <si>
-    <t>[85 8]</t>
-  </si>
-  <si>
-    <t>[47 91]</t>
-  </si>
-  <si>
-    <t>[20 85]</t>
-  </si>
-  <si>
-    <t>[33 5]</t>
-  </si>
-  <si>
-    <t>[82 87]</t>
-  </si>
-  <si>
-    <t>[57 42]</t>
-  </si>
-  <si>
-    <t>[94 72]</t>
-  </si>
-  <si>
-    <t>[90 63]</t>
-  </si>
-  <si>
-    <t>[17 76]</t>
-  </si>
-  <si>
-    <t>[45 15]</t>
-  </si>
-  <si>
-    <t>[83 22]</t>
-  </si>
-  <si>
-    <t>[78 69]</t>
+    <t>[51 50]</t>
+  </si>
+  <si>
+    <t>[61 17]</t>
   </si>
 </sst>
 </file>
@@ -573,8 +573,8 @@
     <col min="7" max="7" width="12.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
-    <col min="10" max="10" width="48.28515625" customWidth="true"/>
-    <col min="11" max="11" width="8" customWidth="true"/>
+    <col min="10" max="10" width="69.85546875" customWidth="true"/>
+    <col min="11" max="11" width="7" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -623,22 +623,22 @@
         <v>11</v>
       </c>
       <c r="D2" s="0">
-        <v>0.6621110697728444</v>
+        <v>0.70833492234886819</v>
       </c>
       <c r="E2" s="0">
-        <v>23.897117257792583</v>
+        <v>18.912966970100438</v>
       </c>
       <c r="F2" s="0">
-        <v>227.83894972899569</v>
+        <v>238.8969426008577</v>
       </c>
       <c r="G2" s="0">
-        <v>2.0073261612221045</v>
+        <v>1.8765241516441269</v>
       </c>
       <c r="H2" s="0">
-        <v>4.014652322444209</v>
+        <v>3.7530483032882538</v>
       </c>
       <c r="I2" s="0">
-        <v>19.138169654636698</v>
+        <v>23.703096571424378</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>61</v>
@@ -652,22 +652,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0">
-        <v>0.66177755182464892</v>
+        <v>0.84099768437881928</v>
       </c>
       <c r="E3" s="0">
-        <v>25.712482045050802</v>
+        <v>23.076895779565923</v>
       </c>
       <c r="F3" s="0">
-        <v>215.36128521385928</v>
+        <v>257.04389355771411</v>
       </c>
       <c r="G3" s="0">
-        <v>2.03409097514675</v>
+        <v>2.162611553352408</v>
       </c>
       <c r="H3" s="0">
-        <v>4.0681819502934999</v>
+        <v>4.3252231067048159</v>
       </c>
       <c r="I3" s="0">
-        <v>17.037034615405243</v>
+        <v>24.08842589733511</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>62</v>
@@ -681,22 +681,22 @@
         <v>13</v>
       </c>
       <c r="D4" s="0">
-        <v>0.68246341006609323</v>
+        <v>0.87917737383298689</v>
       </c>
       <c r="E4" s="0">
-        <v>18.789686951224255</v>
+        <v>20.037406372162355</v>
       </c>
       <c r="F4" s="0">
-        <v>272.65231707456996</v>
+        <v>288.09527081354531</v>
       </c>
       <c r="G4" s="0">
-        <v>1.9463523780253154</v>
+        <v>1.9962053518484866</v>
       </c>
       <c r="H4" s="0">
-        <v>3.8927047560506307</v>
+        <v>3.9924107036969732</v>
       </c>
       <c r="I4" s="0">
-        <v>28.243019007702248</v>
+        <v>28.701185710302891</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>63</v>
@@ -710,22 +710,22 @@
         <v>14</v>
       </c>
       <c r="D5" s="0">
-        <v>0.69718554334244143</v>
+        <v>0.61279898264370147</v>
       </c>
       <c r="E5" s="0">
-        <v>19.069054876762536</v>
+        <v>16.521007139775477</v>
       </c>
       <c r="F5" s="0">
-        <v>278.14468235650259</v>
+        <v>210.67070674736539</v>
       </c>
       <c r="G5" s="0">
-        <v>2.0839228761920197</v>
+        <v>2.2230309626675222</v>
       </c>
       <c r="H5" s="0">
-        <v>4.1678457523840393</v>
+        <v>4.4460619253350444</v>
       </c>
       <c r="I5" s="0">
-        <v>30.396475871502975</v>
+        <v>28.347394324339454</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>64</v>
@@ -739,22 +739,22 @@
         <v>15</v>
       </c>
       <c r="D6" s="0">
-        <v>0.66646010282572854</v>
+        <v>0.72533149795529406</v>
       </c>
       <c r="E6" s="0">
-        <v>20.597724533062546</v>
+        <v>18.134217478771603</v>
       </c>
       <c r="F6" s="0">
-        <v>249.10341610695355</v>
+        <v>248.90154113296995</v>
       </c>
       <c r="G6" s="0">
-        <v>2.1604862089279053</v>
+        <v>2.1705045982171809</v>
       </c>
       <c r="H6" s="0">
-        <v>4.3209724178558107</v>
+        <v>4.3410091964343618</v>
       </c>
       <c r="I6" s="0">
-        <v>26.128347052706374</v>
+        <v>29.791301453447087</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>65</v>
@@ -768,22 +768,22 @@
         <v>16</v>
       </c>
       <c r="D7" s="0">
-        <v>0.65148465776946618</v>
+        <v>0.82497521058072654</v>
       </c>
       <c r="E7" s="0">
-        <v>34.259323552896205</v>
+        <v>39.668246258377664</v>
       </c>
       <c r="F7" s="0">
-        <v>472.13368822393295</v>
+        <v>474.24476241901812</v>
       </c>
       <c r="G7" s="0">
-        <v>4.0959063009472709</v>
+        <v>4.0864070324225521</v>
       </c>
       <c r="H7" s="0">
-        <v>8.1918126018945419</v>
+        <v>8.1728140648451042</v>
       </c>
       <c r="I7" s="0">
-        <v>56.446396132138489</v>
+        <v>48.85411670623968</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>66</v>
@@ -797,22 +797,22 @@
         <v>17</v>
       </c>
       <c r="D8" s="0">
-        <v>1.0254320842983817</v>
+        <v>0.8497056449655237</v>
       </c>
       <c r="E8" s="0">
-        <v>42.301156868196813</v>
+        <v>36.599094912160837</v>
       </c>
       <c r="F8" s="0">
-        <v>544.85479251226332</v>
+        <v>502.84159071443435</v>
       </c>
       <c r="G8" s="0">
-        <v>3.5885431888291075</v>
+        <v>3.6911066808189714</v>
       </c>
       <c r="H8" s="0">
-        <v>7.177086377658215</v>
+        <v>7.3822133616379428</v>
       </c>
       <c r="I8" s="0">
-        <v>46.221784445823971</v>
+        <v>50.712782907179971</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>67</v>
@@ -826,22 +826,22 @@
         <v>18</v>
       </c>
       <c r="D9" s="0">
-        <v>0.79915366454468806</v>
+        <v>0.8121234913086921</v>
       </c>
       <c r="E9" s="0">
-        <v>41.114491142342395</v>
+        <v>39.850892068304312</v>
       </c>
       <c r="F9" s="0">
-        <v>495.63500179682615</v>
+        <v>455.7194394304575</v>
       </c>
       <c r="G9" s="0">
-        <v>4.1128861681504416</v>
+        <v>4.0402244957428426</v>
       </c>
       <c r="H9" s="0">
-        <v>8.2257723363008832</v>
+        <v>8.0804489914856852</v>
       </c>
       <c r="I9" s="0">
-        <v>49.580823858039061</v>
+        <v>46.202449852748707</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>68</v>
@@ -855,22 +855,22 @@
         <v>19</v>
       </c>
       <c r="D10" s="0">
-        <v>0.72388795802205042</v>
+        <v>1.0096069004654167</v>
       </c>
       <c r="E10" s="0">
-        <v>40.536002351324655</v>
+        <v>40.11290893723023</v>
       </c>
       <c r="F10" s="0">
-        <v>477.35662662204857</v>
+        <v>503.83206866200032</v>
       </c>
       <c r="G10" s="0">
-        <v>4.2004140743628824</v>
+        <v>3.6074728213647371</v>
       </c>
       <c r="H10" s="0">
-        <v>8.4008281487257648</v>
+        <v>7.2149456427294743</v>
       </c>
       <c r="I10" s="0">
-        <v>49.464559321255237</v>
+        <v>45.311111619312037</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>69</v>
@@ -884,22 +884,22 @@
         <v>20</v>
       </c>
       <c r="D11" s="0">
-        <v>0.80079512786058948</v>
+        <v>0.83025219226148761</v>
       </c>
       <c r="E11" s="0">
-        <v>40.24300061645323</v>
+        <v>37.430080417650665</v>
       </c>
       <c r="F11" s="0">
-        <v>536.63765785413659</v>
+        <v>478.62837553840274</v>
       </c>
       <c r="G11" s="0">
-        <v>4.5632108015160791</v>
+        <v>3.7939862528663229</v>
       </c>
       <c r="H11" s="0">
-        <v>9.1264216030321581</v>
+        <v>7.5879725057326457</v>
       </c>
       <c r="I11" s="0">
-        <v>60.850103603335818</v>
+        <v>48.514709473296321</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>70</v>
@@ -913,22 +913,22 @@
         <v>21</v>
       </c>
       <c r="D12" s="0">
-        <v>0.98702697937052553</v>
+        <v>0.76983346000565522</v>
       </c>
       <c r="E12" s="0">
-        <v>52.816157570867794</v>
+        <v>46.032067332265484</v>
       </c>
       <c r="F12" s="0">
-        <v>837.70976702901123</v>
+        <v>762.94737199573876</v>
       </c>
       <c r="G12" s="0">
-        <v>4.8925991917408203</v>
+        <v>5.7508575597310427</v>
       </c>
       <c r="H12" s="0">
-        <v>9.7851983834816405</v>
+        <v>11.501715119462085</v>
       </c>
       <c r="I12" s="0">
-        <v>77.600838788397866</v>
+        <v>95.316198385102794</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>71</v>
@@ -942,22 +942,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="0">
-        <v>0.67431191808426305</v>
+        <v>0.79444357860404757</v>
       </c>
       <c r="E13" s="0">
-        <v>48.597584463581633</v>
+        <v>47.456593300641877</v>
       </c>
       <c r="F13" s="0">
-        <v>784.22475019351873</v>
+        <v>782.23069511412666</v>
       </c>
       <c r="G13" s="0">
-        <v>4.4802040081361723</v>
+        <v>4.7590655226433212</v>
       </c>
       <c r="H13" s="0">
-        <v>8.9604080162723445</v>
+        <v>9.5181310452866423</v>
       </c>
       <c r="I13" s="0">
-        <v>72.297561861938846</v>
+        <v>78.44404481980817</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>72</v>
@@ -971,22 +971,22 @@
         <v>23</v>
       </c>
       <c r="D14" s="0">
-        <v>0.985802873230611</v>
+        <v>0.72800644326680763</v>
       </c>
       <c r="E14" s="0">
-        <v>55.185365711154432</v>
+        <v>43.994207370467976</v>
       </c>
       <c r="F14" s="0">
-        <v>829.26671084203349</v>
+        <v>757.26714720774532</v>
       </c>
       <c r="G14" s="0">
-        <v>5.0885445048934228</v>
+        <v>5.2059912136589821</v>
       </c>
       <c r="H14" s="0">
-        <v>10.177089009786846</v>
+        <v>10.411982427317964</v>
       </c>
       <c r="I14" s="0">
-        <v>76.465209755660752</v>
+        <v>89.610118022094269</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>73</v>
@@ -1000,22 +1000,22 @@
         <v>24</v>
       </c>
       <c r="D15" s="0">
-        <v>0.79670837982333276</v>
+        <v>0.85406022438791296</v>
       </c>
       <c r="E15" s="0">
-        <v>51.096285918651333</v>
+        <v>53.696450884666284</v>
       </c>
       <c r="F15" s="0">
-        <v>818.20961819389288</v>
+        <v>814.82842008955356</v>
       </c>
       <c r="G15" s="0">
-        <v>5.4079503757225176</v>
+        <v>4.9823270837225815</v>
       </c>
       <c r="H15" s="0">
-        <v>10.815900751445035</v>
+        <v>9.964654167445163</v>
       </c>
       <c r="I15" s="0">
-        <v>86.598016520732529</v>
+        <v>75.605401085425854</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>74</v>
@@ -1029,22 +1029,22 @@
         <v>25</v>
       </c>
       <c r="D16" s="0">
-        <v>0.83032150280034533</v>
+        <v>0.86465716947003024</v>
       </c>
       <c r="E16" s="0">
-        <v>52.042346752339085</v>
+        <v>49.471083886982619</v>
       </c>
       <c r="F16" s="0">
-        <v>828.72579390951648</v>
+        <v>832.52890817636865</v>
       </c>
       <c r="G16" s="0">
-        <v>4.4756731011375832</v>
+        <v>4.50783336024669</v>
       </c>
       <c r="H16" s="0">
-        <v>8.9513462022751664</v>
+        <v>9.01566672049338</v>
       </c>
       <c r="I16" s="0">
-        <v>71.270916387970203</v>
+        <v>75.860508619959575</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>75</v>
@@ -1058,22 +1058,22 @@
         <v>26</v>
       </c>
       <c r="D17" s="0">
-        <v>0.64361272074585152</v>
+        <v>0.88077682669131885</v>
       </c>
       <c r="E17" s="0">
-        <v>25.061701886083441</v>
+        <v>40.459211414108694</v>
       </c>
       <c r="F17" s="0">
-        <v>584.87165321042505</v>
+        <v>623.55382524776519</v>
       </c>
       <c r="G17" s="0">
-        <v>2.9799215350832093</v>
+        <v>2.9115176587585148</v>
       </c>
       <c r="H17" s="0">
-        <v>5.9598430701664187</v>
+        <v>5.8230353175170295</v>
       </c>
       <c r="I17" s="0">
-        <v>69.54322745452761</v>
+        <v>44.872055335270403</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>76</v>
@@ -1087,22 +1087,22 @@
         <v>27</v>
       </c>
       <c r="D18" s="0">
-        <v>0.87629236863671744</v>
+        <v>0.69997058873154916</v>
       </c>
       <c r="E18" s="0">
-        <v>34.799242314365848</v>
+        <v>25.314111358517657</v>
       </c>
       <c r="F18" s="0">
-        <v>619.37586159130683</v>
+        <v>586.6643026861949</v>
       </c>
       <c r="G18" s="0">
-        <v>3.103052265677718</v>
+        <v>3.4327088877813607</v>
       </c>
       <c r="H18" s="0">
-        <v>6.2061045313554359</v>
+        <v>6.8654177755627215</v>
       </c>
       <c r="I18" s="0">
-        <v>55.229813719926028</v>
+        <v>79.554353595641388</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>77</v>
@@ -1116,22 +1116,22 @@
         <v>28</v>
       </c>
       <c r="D19" s="0">
-        <v>0.78337343521504554</v>
+        <v>0.71848684494951587</v>
       </c>
       <c r="E19" s="0">
-        <v>32.96169940840187</v>
+        <v>28.256362782784684</v>
       </c>
       <c r="F19" s="0">
-        <v>596.38114536222213</v>
+        <v>593.39548536143809</v>
       </c>
       <c r="G19" s="0">
-        <v>2.8373715841290315</v>
+        <v>3.2618096761462092</v>
       </c>
       <c r="H19" s="0">
-        <v>5.6747431682580629</v>
+        <v>6.5236193522924184</v>
       </c>
       <c r="I19" s="0">
-        <v>51.337004630585504</v>
+        <v>68.499373072625374</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>78</v>
@@ -1145,22 +1145,22 @@
         <v>29</v>
       </c>
       <c r="D20" s="0">
-        <v>0.76071816731577746</v>
+        <v>0.63729051001661141</v>
       </c>
       <c r="E20" s="0">
-        <v>28.972610411964453</v>
+        <v>23.770806733836235</v>
       </c>
       <c r="F20" s="0">
-        <v>591.68311091898556</v>
+        <v>544.50953206445467</v>
       </c>
       <c r="G20" s="0">
-        <v>2.8999192979207855</v>
+        <v>3.2922072644760001</v>
       </c>
       <c r="H20" s="0">
-        <v>5.799838595841571</v>
+        <v>6.5844145289520002</v>
       </c>
       <c r="I20" s="0">
-        <v>59.2225984200307</v>
+        <v>75.413437041129882</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>79</v>
@@ -1174,22 +1174,22 @@
         <v>30</v>
       </c>
       <c r="D21" s="0">
-        <v>1.0286035679415015</v>
+        <v>0.7472720937739914</v>
       </c>
       <c r="E21" s="0">
-        <v>34.832399710276491</v>
+        <v>33.6351955434072</v>
       </c>
       <c r="F21" s="0">
-        <v>655.5241404402459</v>
+        <v>612.83254239986968</v>
       </c>
       <c r="G21" s="0">
-        <v>2.7708506142681499</v>
+        <v>2.9307165420885348</v>
       </c>
       <c r="H21" s="0">
-        <v>5.5417012285362999</v>
+        <v>5.8614330841770697</v>
       </c>
       <c r="I21" s="0">
-        <v>52.145688563357346</v>
+        <v>53.397592626557838</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>80</v>
@@ -1203,22 +1203,22 @@
         <v>31</v>
       </c>
       <c r="D22" s="0">
-        <v>0.82518549660903473</v>
+        <v>0.55485908851911159</v>
       </c>
       <c r="E22" s="0">
-        <v>9.2736397966325566</v>
+        <v>7.5842998888077755</v>
       </c>
       <c r="F22" s="0">
-        <v>367.31163430924994</v>
+        <v>327.98883096864506</v>
       </c>
       <c r="G22" s="0">
-        <v>0.54813482727069995</v>
+        <v>1.0424427152636548</v>
       </c>
       <c r="H22" s="0">
-        <v>1.0962696545413999</v>
+        <v>2.0848854305273097</v>
       </c>
       <c r="I22" s="0">
-        <v>21.710601623725825</v>
+        <v>45.081229980853671</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>81</v>
@@ -1232,22 +1232,22 @@
         <v>32</v>
       </c>
       <c r="D23" s="0">
-        <v>0.81004904678219736</v>
+        <v>0.71844369182186396</v>
       </c>
       <c r="E23" s="0">
-        <v>10.942693956468606</v>
+        <v>10.674841168408234</v>
       </c>
       <c r="F23" s="0">
-        <v>356.97147718740661</v>
+        <v>356.87870014632347</v>
       </c>
       <c r="G23" s="0">
-        <v>0.96035100874324031</v>
+        <v>1.130238265898873</v>
       </c>
       <c r="H23" s="0">
-        <v>1.9207020174864806</v>
+        <v>2.260476531797746</v>
       </c>
       <c r="I23" s="0">
-        <v>31.328475380309705</v>
+        <v>37.785851501317538</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>82</v>
@@ -1261,22 +1261,22 @@
         <v>33</v>
       </c>
       <c r="D24" s="0">
-        <v>0.73160800967594175</v>
+        <v>0.78673503760223595</v>
       </c>
       <c r="E24" s="0">
-        <v>7.7768610977172781</v>
+        <v>14.567959160897388</v>
       </c>
       <c r="F24" s="0">
-        <v>345.8189902167498</v>
+        <v>383.6318567033382</v>
       </c>
       <c r="G24" s="0">
-        <v>1.2212480834742703</v>
+        <v>1.1435449109650555</v>
       </c>
       <c r="H24" s="0">
-        <v>2.4424961669485405</v>
+        <v>2.287089821930111</v>
       </c>
       <c r="I24" s="0">
-        <v>54.306072041736577</v>
+        <v>30.114050470069675</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>83</v>
@@ -1290,22 +1290,22 @@
         <v>34</v>
       </c>
       <c r="D25" s="0">
-        <v>0.52062357478004262</v>
+        <v>0.6769803870663007</v>
       </c>
       <c r="E25" s="0">
-        <v>5.0315270348257934</v>
+        <v>7.6437738503203327</v>
       </c>
       <c r="F25" s="0">
-        <v>328.48132126327766</v>
+        <v>354.43629122551471</v>
       </c>
       <c r="G25" s="0">
-        <v>0.99104188711245988</v>
+        <v>1.1648301966539891</v>
       </c>
       <c r="H25" s="0">
-        <v>1.9820837742249198</v>
+        <v>2.3296603933079783</v>
       </c>
       <c r="I25" s="0">
-        <v>64.699791187194535</v>
+        <v>54.012337739718049</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>84</v>
@@ -1319,22 +1319,22 @@
         <v>35</v>
       </c>
       <c r="D26" s="0">
-        <v>0.83723767258377324</v>
+        <v>0.68567003631587242</v>
       </c>
       <c r="E26" s="0">
-        <v>8.9837963534692715</v>
+        <v>8.4397452690606709</v>
       </c>
       <c r="F26" s="0">
-        <v>374.05873630871309</v>
+        <v>355.71847415215876</v>
       </c>
       <c r="G26" s="0">
-        <v>1.2190143695266136</v>
+        <v>1.1983721260686855</v>
       </c>
       <c r="H26" s="0">
-        <v>2.4380287390532271</v>
+        <v>2.396744252137371</v>
       </c>
       <c r="I26" s="0">
-        <v>50.75615660312701</v>
+        <v>50.509001227127776</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>85</v>
@@ -1348,22 +1348,22 @@
         <v>36</v>
       </c>
       <c r="D27" s="0">
-        <v>0.72877553407139062</v>
+        <v>0.71705562866576777</v>
       </c>
       <c r="E27" s="0">
-        <v>17.269567559660189</v>
+        <v>13.601874605132185</v>
       </c>
       <c r="F27" s="0">
-        <v>271.76389402425212</v>
+        <v>283.03496546489043</v>
       </c>
       <c r="G27" s="0">
-        <v>2.0295813518944734</v>
+        <v>2.0373526674043916</v>
       </c>
       <c r="H27" s="0">
-        <v>4.0591627037889468</v>
+        <v>4.0747053348087832</v>
       </c>
       <c r="I27" s="0">
-        <v>31.93866491007266</v>
+        <v>42.39430656426056</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>86</v>
@@ -1377,22 +1377,22 @@
         <v>37</v>
       </c>
       <c r="D28" s="0">
-        <v>0.81172811017183022</v>
+        <v>0.65050419594150966</v>
       </c>
       <c r="E28" s="0">
-        <v>23.896325435440467</v>
+        <v>19.030935004018598</v>
       </c>
       <c r="F28" s="0">
-        <v>280.77086949813986</v>
+        <v>195.56396505944502</v>
       </c>
       <c r="G28" s="0">
-        <v>1.7283859838739786</v>
+        <v>1.6381604692585678</v>
       </c>
       <c r="H28" s="0">
-        <v>3.4567719677479571</v>
+        <v>3.2763209385171357</v>
       </c>
       <c r="I28" s="0">
-        <v>20.307742997213243</v>
+        <v>16.833915764212211</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>87</v>
@@ -1406,22 +1406,22 @@
         <v>38</v>
       </c>
       <c r="D29" s="0">
-        <v>0.67661025441569123</v>
+        <v>0.65339039392860565</v>
       </c>
       <c r="E29" s="0">
-        <v>19.705190103945966</v>
+        <v>18.819200192863114</v>
       </c>
       <c r="F29" s="0">
-        <v>238.84477246092521</v>
+        <v>207.80815950296437</v>
       </c>
       <c r="G29" s="0">
-        <v>2.0465767800033619</v>
+        <v>2.0310965554851497</v>
       </c>
       <c r="H29" s="0">
-        <v>4.0931535600067237</v>
+        <v>4.0621931109702993</v>
       </c>
       <c r="I29" s="0">
-        <v>24.806366381912287</v>
+        <v>22.428075191433805</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>88</v>
@@ -1435,22 +1435,22 @@
         <v>39</v>
       </c>
       <c r="D30" s="0">
-        <v>0.63028709640152913</v>
+        <v>0.63682272625106806</v>
       </c>
       <c r="E30" s="0">
-        <v>19.511017674948448</v>
+        <v>20.555262796691878</v>
       </c>
       <c r="F30" s="0">
-        <v>231.77470524544498</v>
+        <v>189.1300879763852</v>
       </c>
       <c r="G30" s="0">
-        <v>2.1492258695240345</v>
+        <v>2.4426380796395319</v>
       </c>
       <c r="H30" s="0">
-        <v>4.298451739048069</v>
+        <v>4.8852761592790639</v>
       </c>
       <c r="I30" s="0">
-        <v>25.531020509217722</v>
+        <v>22.474845467363366</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>89</v>
@@ -1464,22 +1464,22 @@
         <v>40</v>
       </c>
       <c r="D31" s="0">
-        <v>0.84577292985658004</v>
+        <v>0.70770324380373362</v>
       </c>
       <c r="E31" s="0">
-        <v>23.866394636979155</v>
+        <v>19.02044987715518</v>
       </c>
       <c r="F31" s="0">
-        <v>295.89078147959282</v>
+        <v>215.23850606070721</v>
       </c>
       <c r="G31" s="0">
-        <v>1.6674217435339336</v>
+        <v>1.5482220303115222</v>
       </c>
       <c r="H31" s="0">
-        <v>3.3348434870678672</v>
+        <v>3.0964440606230443</v>
       </c>
       <c r="I31" s="0">
-        <v>20.672360876237015</v>
+        <v>17.519932441491129</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>90</v>
@@ -1493,22 +1493,22 @@
         <v>41</v>
       </c>
       <c r="D32" s="0">
-        <v>0.9888443424783111</v>
+        <v>0.77990137495829825</v>
       </c>
       <c r="E32" s="0">
-        <v>47.398906788150292</v>
+        <v>41.960182972694938</v>
       </c>
       <c r="F32" s="0">
-        <v>525.68479151282793</v>
+        <v>488.90594297009494</v>
       </c>
       <c r="G32" s="0">
-        <v>4.0871424647943675</v>
+        <v>4.4463023529492096</v>
       </c>
       <c r="H32" s="0">
-        <v>8.174284929588735</v>
+        <v>8.8926047058984192</v>
       </c>
       <c r="I32" s="0">
-        <v>45.329075712475905</v>
+        <v>51.80681995627554</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>91</v>
@@ -1522,22 +1522,22 @@
         <v>42</v>
       </c>
       <c r="D33" s="0">
-        <v>0.96385082007624545</v>
+        <v>0.82615111286117815</v>
       </c>
       <c r="E33" s="0">
-        <v>43.315330208792851</v>
+        <v>42.280921767101262</v>
       </c>
       <c r="F33" s="0">
-        <v>521.11099776949311</v>
+        <v>507.17824374318002</v>
       </c>
       <c r="G33" s="0">
-        <v>3.9169652877066401</v>
+        <v>3.8610827795299034</v>
       </c>
       <c r="H33" s="0">
-        <v>7.8339305754132802</v>
+        <v>7.7221655590598068</v>
       </c>
       <c r="I33" s="0">
-        <v>47.123586025229613</v>
+        <v>46.315385313872937</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>92</v>
@@ -1551,22 +1551,22 @@
         <v>43</v>
       </c>
       <c r="D34" s="0">
-        <v>0.84022989307172891</v>
+        <v>0.68158037578733588</v>
       </c>
       <c r="E34" s="0">
-        <v>40.567344537221643</v>
+        <v>31.510416305235935</v>
       </c>
       <c r="F34" s="0">
-        <v>520.85697094071691</v>
+        <v>461.06651445874564</v>
       </c>
       <c r="G34" s="0">
-        <v>3.5495375537510627</v>
+        <v>3.7670370334323171</v>
       </c>
       <c r="H34" s="0">
-        <v>7.0990751075021254</v>
+        <v>7.5340740668646342</v>
       </c>
       <c r="I34" s="0">
-        <v>45.57363563175241</v>
+        <v>55.120015490022162</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>93</v>
@@ -1580,22 +1580,22 @@
         <v>44</v>
       </c>
       <c r="D35" s="0">
-        <v>0.64078061521196861</v>
+        <v>0.90618379027089346</v>
       </c>
       <c r="E35" s="0">
-        <v>38.691333175420397</v>
+        <v>42.830034225043867</v>
       </c>
       <c r="F35" s="0">
-        <v>442.98060967629203</v>
+        <v>523.13220382641089</v>
       </c>
       <c r="G35" s="0">
-        <v>4.4777257427830115</v>
+        <v>3.2020278569325922</v>
       </c>
       <c r="H35" s="0">
-        <v>8.955451485566023</v>
+        <v>6.4040557138651844</v>
       </c>
       <c r="I35" s="0">
-        <v>51.265891265833694</v>
+        <v>39.110029207757208</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>94</v>
@@ -1609,22 +1609,22 @@
         <v>45</v>
       </c>
       <c r="D36" s="0">
-        <v>0.68075156510687029</v>
+        <v>0.74662151298158119</v>
       </c>
       <c r="E36" s="0">
-        <v>36.325627239266076</v>
+        <v>37.689938762569234</v>
       </c>
       <c r="F36" s="0">
-        <v>480.45820173097081</v>
+        <v>481.00522786130767</v>
       </c>
       <c r="G36" s="0">
-        <v>4.2661212183655195</v>
+        <v>3.8855898538462013</v>
       </c>
       <c r="H36" s="0">
-        <v>8.532242436731039</v>
+        <v>7.7711797076924025</v>
       </c>
       <c r="I36" s="0">
-        <v>56.425534387651986</v>
+        <v>49.588539923047428</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>95</v>
@@ -1638,22 +1638,22 @@
         <v>46</v>
       </c>
       <c r="D37" s="0">
-        <v>0.52384536436037288</v>
+        <v>0.84713386657638146</v>
       </c>
       <c r="E37" s="0">
-        <v>51.326509680826589</v>
+        <v>47.821584026140712</v>
       </c>
       <c r="F37" s="0">
-        <v>791.35830908099967</v>
+        <v>786.87658814083045</v>
       </c>
       <c r="G37" s="0">
-        <v>5.0887531416441281</v>
+        <v>5.3113905319542489</v>
       </c>
       <c r="H37" s="0">
-        <v>10.177506283288256</v>
+        <v>10.622781063908498</v>
       </c>
       <c r="I37" s="0">
-        <v>78.459008932112312</v>
+        <v>87.39586831300025</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>96</v>
@@ -1667,22 +1667,22 @@
         <v>47</v>
       </c>
       <c r="D38" s="0">
-        <v>1.0694727636104695</v>
+        <v>0.95289901008761468</v>
       </c>
       <c r="E38" s="0">
-        <v>53.610007262241666</v>
+        <v>49.137950712374746</v>
       </c>
       <c r="F38" s="0">
-        <v>841.6861500118705</v>
+        <v>797.58790921059699</v>
       </c>
       <c r="G38" s="0">
-        <v>5.3103167648700715</v>
+        <v>5.0726561375218395</v>
       </c>
       <c r="H38" s="0">
-        <v>10.620633529740143</v>
+        <v>10.145312275043679</v>
       </c>
       <c r="I38" s="0">
-        <v>83.372868265119649</v>
+        <v>82.337361331013796</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>97</v>
@@ -1696,22 +1696,22 @@
         <v>48</v>
       </c>
       <c r="D39" s="0">
-        <v>1.0260897440539933</v>
+        <v>0.80540283713300631</v>
       </c>
       <c r="E39" s="0">
-        <v>53.262261377649025</v>
+        <v>43.310693236345358</v>
       </c>
       <c r="F39" s="0">
-        <v>810.52910524071058</v>
+        <v>771.98181809299081</v>
       </c>
       <c r="G39" s="0">
-        <v>5.244799680969261</v>
+        <v>5.7384511351315748</v>
       </c>
       <c r="H39" s="0">
-        <v>10.489599361938522</v>
+        <v>11.47690227026315</v>
       </c>
       <c r="I39" s="0">
-        <v>79.81378714736087</v>
+        <v>102.28374586761683</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>98</v>
@@ -1725,22 +1725,22 @@
         <v>49</v>
       </c>
       <c r="D40" s="0">
-        <v>1.003491252600492</v>
+        <v>1.0252933476377069</v>
       </c>
       <c r="E40" s="0">
-        <v>53.011342091718291</v>
+        <v>56.668410025505572</v>
       </c>
       <c r="F40" s="0">
-        <v>802.27837482183838</v>
+        <v>812.19489994575758</v>
       </c>
       <c r="G40" s="0">
-        <v>4.6891560124354204</v>
+        <v>5.405416548036202</v>
       </c>
       <c r="H40" s="0">
-        <v>9.3783120248708407</v>
+        <v>10.810833096072404</v>
       </c>
       <c r="I40" s="0">
-        <v>70.966104922109906</v>
+        <v>77.472647466576547</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>99</v>
@@ -1754,22 +1754,22 @@
         <v>50</v>
       </c>
       <c r="D41" s="0">
-        <v>0.85281122507271934</v>
+        <v>0.87843667578677842</v>
       </c>
       <c r="E41" s="0">
-        <v>52.735214290299268</v>
+        <v>48.726980775272366</v>
       </c>
       <c r="F41" s="0">
-        <v>801.7988643754104</v>
+        <v>797.13723004748147</v>
       </c>
       <c r="G41" s="0">
-        <v>4.873635571466397</v>
+        <v>5.7529530412171432</v>
       </c>
       <c r="H41" s="0">
-        <v>9.7472711429327941</v>
+        <v>11.505906082434286</v>
       </c>
       <c r="I41" s="0">
-        <v>74.099925811815368</v>
+        <v>94.11404069993776</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>100</v>
@@ -1783,22 +1783,22 @@
         <v>51</v>
       </c>
       <c r="D42" s="0">
-        <v>0.71279404914819966</v>
+        <v>0.69371087548897092</v>
       </c>
       <c r="E42" s="0">
-        <v>28.159272412039563</v>
+        <v>24.018643852171476</v>
       </c>
       <c r="F42" s="0">
-        <v>578.6558572279157</v>
+        <v>581.39115994982421</v>
       </c>
       <c r="G42" s="0">
-        <v>3.0119617731591601</v>
+        <v>2.7366061493248974</v>
       </c>
       <c r="H42" s="0">
-        <v>6.0239235463183203</v>
+        <v>5.4732122986497949</v>
       </c>
       <c r="I42" s="0">
-        <v>61.893975678148216</v>
+        <v>66.24181753450587</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>101</v>
@@ -1812,22 +1812,22 @@
         <v>52</v>
       </c>
       <c r="D43" s="0">
-        <v>0.59789438875439394</v>
+        <v>0.83695697481056408</v>
       </c>
       <c r="E43" s="0">
-        <v>26.913817612655446</v>
+        <v>27.275231241766747</v>
       </c>
       <c r="F43" s="0">
-        <v>572.82437254405636</v>
+        <v>667.86280972822874</v>
       </c>
       <c r="G43" s="0">
-        <v>3.0299410106147695</v>
+        <v>2.4336485064310942</v>
       </c>
       <c r="H43" s="0">
-        <v>6.059882021229539</v>
+        <v>4.8672970128621884</v>
       </c>
       <c r="I43" s="0">
-        <v>64.488215058527501</v>
+        <v>59.59045094756442</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>102</v>
@@ -1841,22 +1841,22 @@
         <v>53</v>
       </c>
       <c r="D44" s="0">
-        <v>0.93662078280225036</v>
+        <v>0.76021396653664119</v>
       </c>
       <c r="E44" s="0">
-        <v>38.596186770671011</v>
+        <v>32.972275743724467</v>
       </c>
       <c r="F44" s="0">
-        <v>610.73945884278123</v>
+        <v>590.59210254790889</v>
       </c>
       <c r="G44" s="0">
-        <v>2.8360287419181134</v>
+        <v>3.4015116078662446</v>
       </c>
       <c r="H44" s="0">
-        <v>5.6720574838362268</v>
+        <v>6.8030232157324892</v>
       </c>
       <c r="I44" s="0">
-        <v>44.876833802085194</v>
+        <v>60.927122772627968</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>103</v>
@@ -1870,22 +1870,22 @@
         <v>54</v>
       </c>
       <c r="D45" s="0">
-        <v>0.91039332778212489</v>
+        <v>0.76417319550224183</v>
       </c>
       <c r="E45" s="0">
-        <v>31.531928025607023</v>
+        <v>30.020859387063709</v>
       </c>
       <c r="F45" s="0">
-        <v>606.25023568749612</v>
+        <v>593.74307574732859</v>
       </c>
       <c r="G45" s="0">
-        <v>3.1241902505095376</v>
+        <v>3.1535180715215478</v>
       </c>
       <c r="H45" s="0">
-        <v>6.2483805010190752</v>
+        <v>6.3070361430430957</v>
       </c>
       <c r="I45" s="0">
-        <v>60.067404510305792</v>
+        <v>62.369284472143228</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>104</v>
@@ -1899,22 +1899,22 @@
         <v>55</v>
       </c>
       <c r="D46" s="0">
-        <v>0.742452681628752</v>
+        <v>0.77828219088576334</v>
       </c>
       <c r="E46" s="0">
-        <v>29.390001847583765</v>
+        <v>27.632429892225957</v>
       </c>
       <c r="F46" s="0">
-        <v>582.84480056562347</v>
+        <v>609.68615393631103</v>
       </c>
       <c r="G46" s="0">
-        <v>2.8921402177509243</v>
+        <v>2.9941045797458279</v>
       </c>
       <c r="H46" s="0">
-        <v>5.7842804355018487</v>
+        <v>5.9882091594916558</v>
       </c>
       <c r="I46" s="0">
-        <v>57.355181437711956</v>
+        <v>66.062380790547138</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>105</v>
@@ -1928,22 +1928,22 @@
         <v>56</v>
       </c>
       <c r="D47" s="0">
-        <v>0.7494911465235089</v>
+        <v>0.72343471623193023</v>
       </c>
       <c r="E47" s="0">
-        <v>9.5521524863331386</v>
+        <v>7.8124318650311162</v>
       </c>
       <c r="F47" s="0">
-        <v>334.02858767666601</v>
+        <v>337.55034277723445</v>
       </c>
       <c r="G47" s="0">
-        <v>1.1172019328259692</v>
+        <v>0.86531924261626625</v>
       </c>
       <c r="H47" s="0">
-        <v>2.2344038656519385</v>
+        <v>1.7306384852325325</v>
       </c>
       <c r="I47" s="0">
-        <v>39.067360399179989</v>
+        <v>37.387693358871196</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>106</v>
@@ -1957,22 +1957,22 @@
         <v>57</v>
       </c>
       <c r="D48" s="0">
-        <v>0.84547208889548342</v>
+        <v>0.84173478121828893</v>
       </c>
       <c r="E48" s="0">
-        <v>11.397090875046334</v>
+        <v>12.793949350443603</v>
       </c>
       <c r="F48" s="0">
-        <v>341.44203658312227</v>
+        <v>339.83121064225696</v>
       </c>
       <c r="G48" s="0">
-        <v>1.0431726753792516</v>
+        <v>0.9775798729404559</v>
       </c>
       <c r="H48" s="0">
-        <v>2.0863453507585032</v>
+        <v>1.9551597458809118</v>
       </c>
       <c r="I48" s="0">
-        <v>31.252098162102961</v>
+        <v>25.966348827959063</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>107</v>
@@ -1986,22 +1986,22 @@
         <v>58</v>
       </c>
       <c r="D49" s="0">
-        <v>0.8496571181767042</v>
+        <v>0.84627571147515512</v>
       </c>
       <c r="E49" s="0">
-        <v>11.213674818056415</v>
+        <v>12.622272065578411</v>
       </c>
       <c r="F49" s="0">
-        <v>352.83492945828334</v>
+        <v>356.15970669099755</v>
       </c>
       <c r="G49" s="0">
-        <v>1.2182794757129614</v>
+        <v>0.99523670932887032</v>
       </c>
       <c r="H49" s="0">
-        <v>2.4365589514259227</v>
+        <v>1.9904734186577406</v>
       </c>
       <c r="I49" s="0">
-        <v>38.332799893706941</v>
+        <v>28.082362085137078</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>108</v>
@@ -2015,22 +2015,22 @@
         <v>59</v>
       </c>
       <c r="D50" s="0">
-        <v>0.80835379103939586</v>
+        <v>0.71494342331452976</v>
       </c>
       <c r="E50" s="0">
-        <v>9.9441831123239535</v>
+        <v>10.469758376265569</v>
       </c>
       <c r="F50" s="0">
-        <v>337.73625646754442</v>
+        <v>326.92997587073285</v>
       </c>
       <c r="G50" s="0">
-        <v>0.74661609318615707</v>
+        <v>1.1163267224766598</v>
       </c>
       <c r="H50" s="0">
-        <v>1.4932321863723141</v>
+        <v>2.2326534449533195</v>
       </c>
       <c r="I50" s="0">
-        <v>25.357469938240751</v>
+        <v>34.858556933892253</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>109</v>
@@ -2044,22 +2044,22 @@
         <v>60</v>
       </c>
       <c r="D51" s="0">
-        <v>0.86178895141044998</v>
+        <v>0.50831013744527986</v>
       </c>
       <c r="E51" s="0">
-        <v>9.875315831734115</v>
+        <v>6.4124526402373156</v>
       </c>
       <c r="F51" s="0">
-        <v>364.22499030061721</v>
+        <v>325.8346788700336</v>
       </c>
       <c r="G51" s="0">
-        <v>1.0889671836115871</v>
+        <v>0.82800854723024708</v>
       </c>
       <c r="H51" s="0">
-        <v>2.1779343672231741</v>
+        <v>1.6560170944604942</v>
       </c>
       <c r="I51" s="0">
-        <v>40.16368373901134</v>
+        <v>42.073433399802219</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>110</v>
